--- a/ET-master/Excel/npcgen.xlsx
+++ b/ET-master/Excel/npcgen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\Unity_ET_FrameWork\ET-Branch_V5.0\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\ET-master\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0634842-9B0D-40B5-B4AB-E1099F0987D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705D7EF-CF21-43B3-8867-B23FE779C7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="435" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="885" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npcgen" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
   <si>
     <t>mNpcName</t>
   </si>
@@ -662,6 +662,38 @@
   </si>
   <si>
     <t>升级打怪打装备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002047</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4001002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400123123</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002014</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002018</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿洞一层</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往矿洞一层探险</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1614,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1737,39 +1769,39 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>4001002</v>
+        <v>10000001</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2010002</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>4002047</v>
+      <c r="C8" t="s">
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1778,27 +1810,27 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2010002</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1807,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1819,15 +1851,15 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1836,114 +1868,114 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2020030</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2020017</v>
+        <v>2020030</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>400123123</v>
+      <c r="C12" t="s">
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>2020017</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1952,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1964,15 +1996,15 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1981,90 +2013,90 @@
         <v>2</v>
       </c>
       <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>2020012</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>9100018</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2020012</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>134</v>
+      <c r="C19">
+        <v>9100018</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -2073,27 +2105,27 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2020031</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -2102,27 +2134,27 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2020031</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -2131,98 +2163,98 @@
         <v>3</v>
       </c>
       <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
       <c r="H23">
         <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2020001</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
       </c>
       <c r="H24">
         <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2020001</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H25">
         <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -2231,27 +2263,27 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2020006</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -2266,21 +2298,21 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2020006</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>4002013</v>
+      <c r="C28" t="s">
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -2289,27 +2321,27 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2020013</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29">
-        <v>4002014</v>
+        <v>4002013</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -2318,56 +2350,56 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2020014</v>
+        <v>2020013</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>4002018</v>
+      <c r="C30" t="s">
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2020018</v>
+        <v>2020014</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -2376,27 +2408,27 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2020017</v>
+        <v>2020018</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -2405,27 +2437,27 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2020030</v>
+        <v>2020017</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -2434,27 +2466,27 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2020022</v>
+        <v>2020030</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -2463,56 +2495,56 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>2020021</v>
+        <v>2020022</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2020021</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2521,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2538,10 +2570,10 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -2550,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2562,15 +2594,15 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2579,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2596,10 +2628,10 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2608,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2624,45 +2656,45 @@
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41">
         <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -2671,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2688,124 +2720,124 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>108</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>3</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>4</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
       <c r="H48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
       </c>
       <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
         <v>5</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2822,10 +2854,10 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -2834,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2851,10 +2883,10 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -2863,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2879,45 +2911,45 @@
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
       <c r="H53">
         <v>2</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -2926,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2938,52 +2970,52 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>123</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>4005001</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
       <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>2030001</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>31</v>
@@ -2992,27 +3024,27 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2030002</v>
+        <v>2030001</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
         <v>31</v>
@@ -3027,21 +3059,21 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>2030003</v>
+        <v>2030002</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
         <v>31</v>
@@ -3050,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>2030004</v>
+        <v>2030003</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3067,10 +3099,10 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
         <v>31</v>
@@ -3079,56 +3111,56 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>2030005</v>
+        <v>2030004</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>2030006</v>
+        <v>2030005</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
         <v>31</v>
@@ -3137,27 +3169,27 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2030007</v>
+        <v>2030006</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
         <v>31</v>
@@ -3166,27 +3198,27 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2030008</v>
+        <v>2030007</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
         <v>31</v>
@@ -3195,27 +3227,27 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>2030009</v>
+        <v>2030008</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
         <v>31</v>
@@ -3224,13 +3256,13 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>2030010</v>
+        <v>2030009</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3240,51 +3272,51 @@
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
       <c r="F66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
+      <c r="I66">
+        <v>2030010</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" t="s">
-        <v>49</v>
-      </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>2</v>
-      </c>
-      <c r="I67">
-        <v>2100001</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
         <v>49</v>
@@ -3293,76 +3325,76 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2100001</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
       <c r="F69">
         <v>3</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" t="s">
-        <v>54</v>
-      </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3379,19 +3411,19 @@
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3403,24 +3435,24 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3437,13 +3469,13 @@
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3466,19 +3498,19 @@
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3495,19 +3527,19 @@
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3524,19 +3556,19 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3553,19 +3585,19 @@
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78">
         <v>2</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3582,19 +3614,19 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
         <v>58</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3611,19 +3643,19 @@
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
         <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3640,42 +3672,60 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
         <v>182</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>69</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>70</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
         <v>5</v>
       </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.2">
@@ -3683,47 +3733,29 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" t="s">
-        <v>54</v>
-      </c>
       <c r="F84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
         <v>54</v>
@@ -3732,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -3744,18 +3776,36 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.2">
@@ -3763,53 +3813,35 @@
         <v>1</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" t="s">
-        <v>95</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2020031</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E89" t="s">
         <v>95</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3821,18 +3853,36 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>2020031</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
       </c>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.2">
@@ -3840,35 +3890,46 @@
         <v>2</v>
       </c>
       <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>187</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>101</v>
       </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="G92">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>4</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ET-master/Excel/npcgen.xlsx
+++ b/ET-master/Excel/npcgen.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\ET-master\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyUnityFrameWork\MyUF\ET-master\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705D7EF-CF21-43B3-8867-B23FE779C7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C617E6D-2252-4124-937B-C1FB6578FCF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="885" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npcgen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,10 +1749,10 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1778,10 +1778,10 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1807,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1836,10 +1836,10 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1865,10 +1865,10 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1894,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1923,10 +1923,10 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1952,10 +1952,10 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1981,10 +1981,10 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2010,10 +2010,10 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2039,10 +2039,10 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2058,6 +2058,12 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
       <c r="H17">
         <v>2</v>
       </c>
@@ -2073,10 +2079,10 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2102,10 +2108,10 @@
         <v>9</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2131,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2160,10 +2166,10 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2189,10 +2195,10 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2208,6 +2214,12 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
       <c r="H23">
         <v>2</v>
       </c>
@@ -2223,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2245,6 +2257,12 @@
       <c r="C25" t="s">
         <v>123</v>
       </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
       <c r="H25">
         <v>2</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2292,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2321,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2347,10 +2365,10 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2379,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2408,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -2437,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2466,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2495,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -2524,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -2553,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2582,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2611,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2640,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2669,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -2685,6 +2703,9 @@
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>10</v>
+      </c>
       <c r="H41">
         <v>1</v>
       </c>
@@ -2703,7 +2724,7 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2732,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2751,6 +2772,9 @@
       <c r="C44" t="s">
         <v>123</v>
       </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
       <c r="H44">
         <v>1</v>
       </c>
@@ -2769,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2785,6 +2809,9 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>10</v>
+      </c>
       <c r="H46">
         <v>1</v>
       </c>
@@ -2803,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2819,6 +2846,9 @@
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>10</v>
+      </c>
       <c r="H48">
         <v>1</v>
       </c>
@@ -2837,7 +2867,7 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2866,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2895,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2924,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2940,6 +2970,9 @@
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>10</v>
+      </c>
       <c r="H53">
         <v>2</v>
       </c>
@@ -2958,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2987,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -3006,6 +3039,9 @@
       <c r="C56" t="s">
         <v>123</v>
       </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
       <c r="H56">
         <v>2</v>
       </c>
@@ -3024,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3053,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -3082,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -3111,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -3140,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3169,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3198,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -3227,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3256,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -3285,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3305,7 +3341,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -3325,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -3354,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -3374,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -3394,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3423,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3452,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3481,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3510,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3539,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3568,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3597,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3626,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3655,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3684,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3713,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -3733,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -3744,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -3764,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -3793,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -3813,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -3824,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
@@ -3841,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3870,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -3890,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3901,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.2">
@@ -3918,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -3936,6 +3972,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ET-master/Excel/npcgen.xlsx
+++ b/ET-master/Excel/npcgen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyUnityFrameWork\MyUF\ET-master\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C617E6D-2252-4124-937B-C1FB6578FCF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05667E96-51A8-4696-8332-EB4B552FB323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>10</v>
